--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H2">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I2">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J2">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N2">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O2">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P2">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q2">
-        <v>66.20052159564645</v>
+        <v>53.89673308946344</v>
       </c>
       <c r="R2">
-        <v>595.8046943608181</v>
+        <v>485.070597805171</v>
       </c>
       <c r="S2">
-        <v>0.02105483448461217</v>
+        <v>0.00737206820231695</v>
       </c>
       <c r="T2">
-        <v>0.02105483448461217</v>
+        <v>0.00737206820231695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H3">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I3">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J3">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.383754</v>
       </c>
       <c r="O3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P3">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q3">
-        <v>805.9987599133764</v>
+        <v>1285.128117309695</v>
       </c>
       <c r="R3">
-        <v>7253.988839220387</v>
+        <v>11566.15305578725</v>
       </c>
       <c r="S3">
-        <v>0.2563449664102769</v>
+        <v>0.1757815657174661</v>
       </c>
       <c r="T3">
-        <v>0.2563449664102769</v>
+        <v>0.1757815657174661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H4">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I4">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J4">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N4">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P4">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q4">
-        <v>725.2511473307143</v>
+        <v>2937.383863420228</v>
       </c>
       <c r="R4">
-        <v>6527.260325976429</v>
+        <v>26436.45477078205</v>
       </c>
       <c r="S4">
-        <v>0.2306634826851194</v>
+        <v>0.401779346098299</v>
       </c>
       <c r="T4">
-        <v>0.2306634826851194</v>
+        <v>0.401779346098299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>485.815337</v>
       </c>
       <c r="I5">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J5">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N5">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O5">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P5">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q5">
-        <v>50.47092352507489</v>
+        <v>25.77093822287522</v>
       </c>
       <c r="R5">
-        <v>454.238311725674</v>
+        <v>231.938444005877</v>
       </c>
       <c r="S5">
-        <v>0.01605209317830895</v>
+        <v>0.003524983859436818</v>
       </c>
       <c r="T5">
-        <v>0.01605209317830894</v>
+        <v>0.003524983859436818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J6">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>11.383754</v>
       </c>
       <c r="O6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P6">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q6">
-        <v>614.4891428705665</v>
+        <v>614.4891428705664</v>
       </c>
       <c r="R6">
-        <v>5530.402285835099</v>
+        <v>5530.402285835098</v>
       </c>
       <c r="S6">
-        <v>0.1954360310747433</v>
+        <v>0.0840506578256912</v>
       </c>
       <c r="T6">
-        <v>0.1954360310747433</v>
+        <v>0.0840506578256912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J7">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N7">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P7">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q7">
-        <v>552.9275949966004</v>
+        <v>1404.521827982039</v>
       </c>
       <c r="R7">
-        <v>4976.348354969404</v>
+        <v>12640.69645183835</v>
       </c>
       <c r="S7">
-        <v>0.1758566052656856</v>
+        <v>0.192112399286603</v>
       </c>
       <c r="T7">
-        <v>0.1758566052656856</v>
+        <v>0.192112399286603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H8">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I8">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J8">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N8">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O8">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P8">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q8">
-        <v>13.52279564959311</v>
+        <v>12.38037978742056</v>
       </c>
       <c r="R8">
-        <v>121.705160846338</v>
+        <v>111.423418086785</v>
       </c>
       <c r="S8">
-        <v>0.004300875843705446</v>
+        <v>0.001693405127393393</v>
       </c>
       <c r="T8">
-        <v>0.004300875843705445</v>
+        <v>0.001693405127393393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H9">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I9">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J9">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>11.383754</v>
       </c>
       <c r="O9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P9">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q9">
-        <v>164.6415505712696</v>
+        <v>295.2010865181211</v>
       </c>
       <c r="R9">
-        <v>1481.773955141426</v>
+        <v>2656.80977866309</v>
       </c>
       <c r="S9">
-        <v>0.05236364477218791</v>
+        <v>0.04037800472242539</v>
       </c>
       <c r="T9">
-        <v>0.05236364477218791</v>
+        <v>0.04037800472242539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H10">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N10">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P10">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q10">
-        <v>148.1472173269275</v>
+        <v>674.7334342179722</v>
       </c>
       <c r="R10">
-        <v>1333.324955942348</v>
+        <v>6072.600907961751</v>
       </c>
       <c r="S10">
-        <v>0.04711768223257409</v>
+        <v>0.09229095364985783</v>
       </c>
       <c r="T10">
-        <v>0.04711768223257409</v>
+        <v>0.09229095364985783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H11">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I11">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J11">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3116673333333334</v>
+        <v>0.1591403333333333</v>
       </c>
       <c r="N11">
-        <v>0.935002</v>
+        <v>0.477421</v>
       </c>
       <c r="O11">
-        <v>0.0414413620607491</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="P11">
-        <v>0.04144136206074909</v>
+        <v>0.01260326986877891</v>
       </c>
       <c r="Q11">
-        <v>0.1055146640326667</v>
+        <v>0.09367270558566668</v>
       </c>
       <c r="R11">
-        <v>0.949631976294</v>
+        <v>0.843054350271</v>
       </c>
       <c r="S11">
-        <v>3.355855412253061E-05</v>
+        <v>1.281267963174733E-05</v>
       </c>
       <c r="T11">
-        <v>3.35585541225306E-05</v>
+        <v>1.281267963174733E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H12">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I12">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J12">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>11.383754</v>
       </c>
       <c r="O12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="P12">
-        <v>0.5045532214096876</v>
+        <v>0.3005157372251983</v>
       </c>
       <c r="Q12">
-        <v>1.284652844315334</v>
+        <v>2.233557042739334</v>
       </c>
       <c r="R12">
-        <v>11.561875598838</v>
+        <v>20.102013384654</v>
       </c>
       <c r="S12">
-        <v>0.0004085791524794325</v>
+        <v>0.0003055089596155641</v>
       </c>
       <c r="T12">
-        <v>0.0004085791524794325</v>
+        <v>0.0003055089596155641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H13">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I13">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J13">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.414430666666667</v>
+        <v>8.673183333333334</v>
       </c>
       <c r="N13">
-        <v>10.243292</v>
+        <v>26.01955</v>
       </c>
       <c r="O13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060228</v>
       </c>
       <c r="P13">
-        <v>0.4540054165295632</v>
+        <v>0.6868809929060229</v>
       </c>
       <c r="Q13">
-        <v>1.155952087769333</v>
+        <v>5.105183154116667</v>
       </c>
       <c r="R13">
-        <v>10.403568789924</v>
+        <v>45.94664838705</v>
       </c>
       <c r="S13">
-        <v>0.000367646346184163</v>
+        <v>0.0006982938712629552</v>
       </c>
       <c r="T13">
-        <v>0.000367646346184163</v>
+        <v>0.0006982938712629551</v>
       </c>
     </row>
   </sheetData>
